--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward4714_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward4714_impedance.xlsx
@@ -1124,19 +1124,19 @@
         <v>288.6751509631174</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833882</v>
       </c>
       <c r="Q2">
-        <v>-8.693395120032067E-11</v>
+        <v>-8.691865633165179E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464772</v>
+        <v>0.9526279474464771</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172764</v>
+        <v>0.9526279821172765</v>
       </c>
       <c r="Q3">
-        <v>8.709505441346354E-08</v>
+        <v>8.709503277923121E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777252</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860258</v>
       </c>
       <c r="Q4">
-        <v>5.191990874370883E-07</v>
+        <v>5.191990492528139E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027253</v>
+        <v>0.9526279361027249</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610253</v>
+        <v>0.9526279934610254</v>
       </c>
       <c r="Q5">
-        <v>4.282297024653554E-07</v>
+        <v>4.282297045724964E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717615</v>
+        <v>179.9999995717614</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.9526279315652241</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985249</v>
+        <v>0.9526279979985247</v>
       </c>
       <c r="Q6">
-        <v>5.646835709409051E-07</v>
+        <v>5.646835722661258E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783974</v>
+        <v>0.9526279277839733</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797747</v>
+        <v>0.9526280017797745</v>
       </c>
       <c r="Q7">
-        <v>6.78395101623223E-07</v>
+        <v>6.783951215538893E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.952627927027723</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360245</v>
+        <v>0.9526280025360244</v>
       </c>
       <c r="Q8">
-        <v>7.011374052225951E-07</v>
+        <v>7.011374218447674E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.9526279255152229</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485245</v>
+        <v>0.9526280040485241</v>
       </c>
       <c r="Q9">
-        <v>7.466220324092873E-07</v>
+        <v>7.466220446292234E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992533691</v>
+        <v>179.999999253369</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027234</v>
+        <v>0.9526279240027224</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610246</v>
+        <v>0.9526280055610244</v>
       </c>
       <c r="Q10">
-        <v>7.921066425400759E-07</v>
+        <v>7.921066586150531E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992078845</v>
+        <v>179.9999992078844</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464732</v>
+        <v>0.9526279232464725</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172746</v>
+        <v>0.9526280063172744</v>
       </c>
       <c r="Q11">
-        <v>8.148489508973638E-07</v>
+        <v>8.148489631170635E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777265</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0.9526279843860267</v>
       </c>
       <c r="Q12">
-        <v>1.553219954551154E-07</v>
+        <v>1.553219419280018E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777268</v>
+        <v>0.9526279451777265</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860268</v>
       </c>
       <c r="Q13">
-        <v>1.553219745423646E-07</v>
+        <v>1.553219529078956E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089768</v>
+        <v>0.9526279429089762</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547759</v>
+        <v>0.9526279866547763</v>
       </c>
       <c r="Q14">
-        <v>2.235489528143363E-07</v>
+        <v>2.235489365876075E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964761</v>
+        <v>0.952627941396476</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672758</v>
+        <v>0.9526279881672759</v>
       </c>
       <c r="Q15">
-        <v>2.690335289553379E-07</v>
+        <v>2.690335242748723E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279459339769</v>
+        <v>0.9526279459339767</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>0.9526279836297766</v>
       </c>
       <c r="Q16">
-        <v>1.325796842897501E-07</v>
+        <v>1.325796346179136E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339769</v>
+        <v>0.9526279459339768</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -2036,13 +2036,13 @@
         <v>0.9526279836297766</v>
       </c>
       <c r="Q17">
-        <v>1.325796672322171E-07</v>
+        <v>1.325796417425897E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277264</v>
+        <v>0.9526279391277257</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360254</v>
+        <v>0.9526279904360262</v>
       </c>
       <c r="Q18">
-        <v>3.372605478045607E-07</v>
+        <v>3.372605113715532E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996627307</v>
+        <v>179.9999996627306</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027263</v>
+        <v>0.9526279361027254</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610253</v>
+        <v>0.9526279934610259</v>
       </c>
       <c r="Q19">
-        <v>4.282298304500687E-07</v>
+        <v>4.282297793233358E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339764</v>
+        <v>0.9526279338339754</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297753</v>
+        <v>0.9526279957297757</v>
       </c>
       <c r="Q20">
-        <v>4.964567813197532E-07</v>
+        <v>4.964567376952917E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777252</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860258</v>
       </c>
       <c r="Q21">
-        <v>5.191990874370883E-07</v>
+        <v>5.191990438125676E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686275</v>
@@ -2521,7 +2521,7 @@
         <v>1.084507397945887</v>
       </c>
       <c r="Q4">
-        <v>29.14059842282393</v>
+        <v>29.14059842282392</v>
       </c>
       <c r="R4">
         <v>-91.10214737018323</v>
@@ -2639,7 +2639,7 @@
         <v>1.08450739798448</v>
       </c>
       <c r="Q6">
-        <v>29.14059842362746</v>
+        <v>29.14059842362745</v>
       </c>
       <c r="R6">
         <v>-91.10214736483699</v>
@@ -2760,7 +2760,7 @@
         <v>29.14059842603803</v>
       </c>
       <c r="R8">
-        <v>-91.10214734879825</v>
+        <v>-91.10214734879824</v>
       </c>
       <c r="S8">
         <v>150.3279626386016</v>
@@ -3465,7 +3465,7 @@
         <v>1.084507397926591</v>
       </c>
       <c r="Q20">
-        <v>29.14059842242217</v>
+        <v>29.14059842242216</v>
       </c>
       <c r="R20">
         <v>-91.10214737285635</v>
@@ -3524,7 +3524,7 @@
         <v>1.084507397945887</v>
       </c>
       <c r="Q21">
-        <v>29.14059842282393</v>
+        <v>29.14059842282392</v>
       </c>
       <c r="R21">
         <v>-91.10214737018323</v>
@@ -3628,19 +3628,19 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198809508</v>
+        <v>1.102503198809507</v>
       </c>
       <c r="O8">
         <v>1.073936237650113</v>
@@ -4186,7 +4186,7 @@
         <v>1.084507398207613</v>
       </c>
       <c r="Q11">
-        <v>29.14059842795399</v>
+        <v>29.140598427954</v>
       </c>
       <c r="R11">
         <v>-91.10214733332094</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.102503199323834</v>
+        <v>1.102503199323833</v>
       </c>
       <c r="O14">
         <v>1.073936237887705</v>
@@ -4540,7 +4540,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.1405984159011</v>
+        <v>29.14059841590111</v>
       </c>
       <c r="R17">
         <v>-91.10214741351464</v>
@@ -4661,7 +4661,7 @@
         <v>29.14059842112403</v>
       </c>
       <c r="R19">
-        <v>-91.10214737876404</v>
+        <v>-91.10214737876403</v>
       </c>
       <c r="S19">
         <v>150.3279626289879</v>
@@ -4865,19 +4865,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -4892,7 +4892,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -4904,16 +4904,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849896</v>
+        <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720172204747969E-10</v>
+        <v>1.720001749677168E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.866025388164028</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659296223926042E-08</v>
+        <v>8.659291236086164E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,16 +5016,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679625</v>
       </c>
       <c r="Q4">
-        <v>9.162327423810544E-07</v>
+        <v>9.162327002087824E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -5081,16 +5081,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179629</v>
       </c>
       <c r="Q5">
-        <v>7.415718441938306E-07</v>
+        <v>7.415717346995506E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5134,22 +5134,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265307</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429618</v>
       </c>
       <c r="Q6">
-        <v>1.003563390030877E-06</v>
+        <v>1.00356325867092E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890319</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804596</v>
+        <v>0.8660254372804609</v>
       </c>
       <c r="Q7">
-        <v>1.221889674684557E-06</v>
+        <v>1.221889543927077E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,22 +5252,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015319</v>
+        <v>0.8660253696015312</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679593</v>
+        <v>0.8660254379679606</v>
       </c>
       <c r="Q8">
-        <v>1.265554944833726E-06</v>
+        <v>1.265554793590934E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344368</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5311,22 +5311,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265321</v>
+        <v>0.8660253682265315</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429591</v>
+        <v>0.8660254393429605</v>
       </c>
       <c r="Q9">
-        <v>1.352885452148768E-06</v>
+        <v>1.352885325631802E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471063</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5370,22 +5370,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515324</v>
+        <v>0.8660253668515318</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179589</v>
+        <v>0.8660254407179603</v>
       </c>
       <c r="Q10">
-        <v>1.440215971631803E-06</v>
+        <v>1.440215845114703E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597758</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640326</v>
+        <v>0.8660253661640319</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054588</v>
+        <v>0.86602544140546</v>
       </c>
       <c r="Q11">
-        <v>1.483881228101202E-06</v>
+        <v>1.483881101584058E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161106</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5488,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679651</v>
       </c>
       <c r="Q12">
-        <v>2.175887383307079E-07</v>
+        <v>2.175886804912965E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679642</v>
+        <v>0.8660254214679648</v>
       </c>
       <c r="Q13">
-        <v>2.175887366606355E-07</v>
+        <v>2.175886783005772E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304644</v>
       </c>
       <c r="Q14">
-        <v>3.485844804580637E-07</v>
+        <v>3.485844259534832E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.866025424905464</v>
       </c>
       <c r="Q15">
-        <v>4.359150280127745E-07</v>
+        <v>4.359149549684551E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804643</v>
+        <v>0.8660254207804652</v>
       </c>
       <c r="Q16">
-        <v>1.739234838718169E-07</v>
+        <v>1.739234217917111E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.73923477961005E-07</v>
+        <v>1.739234238417315E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015288</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679637</v>
       </c>
       <c r="Q18">
-        <v>5.66910735051156E-07</v>
+        <v>5.669106771213021E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5907,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179623</v>
+        <v>0.8660254297179634</v>
       </c>
       <c r="Q19">
-        <v>7.415717421920364E-07</v>
+        <v>7.41571691465958E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -5960,22 +5960,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804628</v>
       </c>
       <c r="Q20">
-        <v>8.725674909668817E-07</v>
+        <v>8.725674479718554E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6019,16 +6019,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679627</v>
       </c>
       <c r="Q21">
-        <v>9.162327423810544E-07</v>
+        <v>9.162326993859829E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -6117,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -6144,7 +6144,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -6156,16 +6156,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849896</v>
+        <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720172204747969E-10</v>
+        <v>1.720001749677168E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.866025388164028</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659296223926042E-08</v>
+        <v>8.659291236086164E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,16 +6268,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679625</v>
       </c>
       <c r="Q4">
-        <v>9.162327423810544E-07</v>
+        <v>9.162327002087824E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6333,16 +6333,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179629</v>
       </c>
       <c r="Q5">
-        <v>7.415718441938306E-07</v>
+        <v>7.415717346995506E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6386,22 +6386,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265307</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429618</v>
       </c>
       <c r="Q6">
-        <v>1.003563390030877E-06</v>
+        <v>1.00356325867092E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6445,22 +6445,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890319</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804596</v>
+        <v>0.8660254372804609</v>
       </c>
       <c r="Q7">
-        <v>1.221889674684557E-06</v>
+        <v>1.221889543927077E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015319</v>
+        <v>0.8660253696015312</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679593</v>
+        <v>0.8660254379679606</v>
       </c>
       <c r="Q8">
-        <v>1.265554944833726E-06</v>
+        <v>1.265554793590934E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344368</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6563,22 +6563,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265321</v>
+        <v>0.8660253682265315</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429591</v>
+        <v>0.8660254393429605</v>
       </c>
       <c r="Q9">
-        <v>1.352885452148768E-06</v>
+        <v>1.352885325631802E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471063</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6622,22 +6622,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515324</v>
+        <v>0.8660253668515318</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179589</v>
+        <v>0.8660254407179603</v>
       </c>
       <c r="Q10">
-        <v>1.440215971631803E-06</v>
+        <v>1.440215845114703E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597758</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640326</v>
+        <v>0.8660253661640319</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054588</v>
+        <v>0.86602544140546</v>
       </c>
       <c r="Q11">
-        <v>1.483881228101202E-06</v>
+        <v>1.483881101584058E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161106</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6740,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679651</v>
       </c>
       <c r="Q12">
-        <v>2.175887383307079E-07</v>
+        <v>2.175886804912965E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6799,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679642</v>
+        <v>0.8660254214679648</v>
       </c>
       <c r="Q13">
-        <v>2.175887366606355E-07</v>
+        <v>2.175886783005772E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304644</v>
       </c>
       <c r="Q14">
-        <v>3.485844804580637E-07</v>
+        <v>3.485844259534832E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6923,10 +6923,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.866025424905464</v>
       </c>
       <c r="Q15">
-        <v>4.359150280127745E-07</v>
+        <v>4.359149549684551E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804643</v>
+        <v>0.8660254207804652</v>
       </c>
       <c r="Q16">
-        <v>1.739234838718169E-07</v>
+        <v>1.739234217917111E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.73923477961005E-07</v>
+        <v>1.739234238417315E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015288</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679637</v>
       </c>
       <c r="Q18">
-        <v>5.66910735051156E-07</v>
+        <v>5.669106771213021E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7159,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179623</v>
+        <v>0.8660254297179634</v>
       </c>
       <c r="Q19">
-        <v>7.415717421920364E-07</v>
+        <v>7.41571691465958E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -7212,22 +7212,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804628</v>
       </c>
       <c r="Q20">
-        <v>8.725674909668817E-07</v>
+        <v>8.725674479718554E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -7271,16 +7271,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679627</v>
       </c>
       <c r="Q21">
-        <v>9.162327423810544E-07</v>
+        <v>9.162326993859829E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -7641,13 +7641,13 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.02648253839819</v>
+        <v>29.02648253839818</v>
       </c>
       <c r="R6">
         <v>-91.24839357891874</v>
@@ -7703,13 +7703,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7818,7 +7818,7 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208042</v>
       </c>
       <c r="P9">
         <v>0.9840663106779516</v>
@@ -7942,7 +7942,7 @@
         <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016713</v>
+        <v>29.02648255016712</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -7995,13 +7995,13 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
         <v>-91.24839364820043</v>
@@ -8178,7 +8178,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -8240,10 +8240,10 @@
         <v>29.02648251807003</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8299,10 +8299,10 @@
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -8352,7 +8352,7 @@
         <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380841</v>
+        <v>0.9840663101380842</v>
       </c>
       <c r="Q18">
         <v>29.02648252769916</v>
@@ -8648,7 +8648,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -8893,13 +8893,13 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.02648253839819</v>
+        <v>29.02648253839818</v>
       </c>
       <c r="R6">
         <v>-91.24839357891874</v>
@@ -8955,13 +8955,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9070,7 +9070,7 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208042</v>
       </c>
       <c r="P9">
         <v>0.9840663106779516</v>
@@ -9194,7 +9194,7 @@
         <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016713</v>
+        <v>29.02648255016712</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -9247,13 +9247,13 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
         <v>-91.24839364820043</v>
@@ -9430,7 +9430,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -9492,10 +9492,10 @@
         <v>29.02648251807003</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9551,10 +9551,10 @@
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -9604,7 +9604,7 @@
         <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380841</v>
+        <v>0.9840663101380842</v>
       </c>
       <c r="Q18">
         <v>29.02648252769916</v>
@@ -9909,7 +9909,7 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664723</v>
+        <v>0.6350853099664721</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
@@ -9918,7 +9918,7 @@
         <v>0.635085309858575</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061767</v>
+        <v>60.00000000061768</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112945</v>
+        <v>0.6350853273112942</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114504</v>
+        <v>0.6350852941114498</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762055</v>
+        <v>60.00000073762065</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S3">
-        <v>120.0000009916561</v>
+        <v>120.000000991656</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279452</v>
+        <v>0.6350853458279448</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.635085283890604</v>
+        <v>0.6350852838906019</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789035</v>
+        <v>60.00000083789072</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S4">
-        <v>120.0000023882382</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.635085341929702</v>
+        <v>0.6350853419297019</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852860423606</v>
+        <v>0.6350852860423595</v>
       </c>
       <c r="Q5">
-        <v>60.00000081678123</v>
+        <v>60.00000081678132</v>
       </c>
       <c r="R5">
         <v>-89.99999999999565</v>
       </c>
       <c r="S5">
-        <v>120.0000020942209</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.635085347777065</v>
+        <v>0.6350853477770648</v>
       </c>
       <c r="O6">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147243</v>
+        <v>0.6350852828147233</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844554</v>
+        <v>60.00000084844561</v>
       </c>
       <c r="R6">
         <v>-89.99999999999562</v>
@@ -10225,10 +10225,10 @@
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250274</v>
+        <v>0.6350852801250264</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483246</v>
+        <v>60.00000087483254</v>
       </c>
       <c r="R7">
         <v>-89.99999999999558</v>
@@ -10281,16 +10281,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244278</v>
+        <v>0.6350853536244282</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.635085279587088</v>
+        <v>0.6350852795870868</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010988</v>
+        <v>60.00000088010993</v>
       </c>
       <c r="R8">
         <v>-89.99999999999558</v>
@@ -10343,16 +10343,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735486</v>
+        <v>0.6350853555735487</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112094</v>
+        <v>0.6350852785112083</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066462</v>
+        <v>60.00000089066469</v>
       </c>
       <c r="R9">
         <v>-89.99999999999558</v>
@@ -10405,16 +10405,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226695</v>
+        <v>0.6350853575226696</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353306</v>
+        <v>0.6350852774353295</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121939</v>
+        <v>60.00000090121949</v>
       </c>
       <c r="R10">
         <v>-89.99999999999557</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972299</v>
+        <v>0.6350853584972301</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973911</v>
+        <v>0.6350852768973899</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649679</v>
+        <v>60.00000090649689</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S11">
-        <v>120.0000033437943</v>
+        <v>120.0000033437942</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,19 +10529,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349757</v>
+        <v>0.6350853302349754</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976316</v>
+        <v>0.635085292497631</v>
       </c>
       <c r="Q12">
-        <v>60.00000075345277</v>
+        <v>60.00000075345286</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S12">
         <v>120.0000012121689</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349757</v>
+        <v>0.6350853302349754</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976318</v>
+        <v>0.635085292497631</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345276</v>
+        <v>60.00000075345286</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S13">
-        <v>120.000001212169</v>
+        <v>120.0000012121689</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586578</v>
+        <v>0.6350853331586576</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838149</v>
+        <v>0.6350852908838138</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928468</v>
+        <v>60.00000076928487</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S14">
-        <v>120.000001432682</v>
+        <v>120.0000014326819</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,19 +10715,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853351077785</v>
+        <v>0.6350853351077783</v>
       </c>
       <c r="O15">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079359</v>
+        <v>0.635085289807935</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983956</v>
+        <v>60.00000077983966</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S15">
         <v>120.0000015796906</v>
@@ -10777,19 +10777,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604153</v>
+        <v>0.6350853292604151</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852930355714</v>
+        <v>0.6350852930355708</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817535</v>
+        <v>60.00000074817545</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S16">
         <v>120.0000011386646</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604153</v>
+        <v>0.6350853292604149</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355715</v>
+        <v>0.6350852930355708</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817535</v>
+        <v>60.00000074817543</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S17">
-        <v>120.0000011386647</v>
+        <v>120.0000011386646</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314606</v>
+        <v>0.6350853380314603</v>
       </c>
       <c r="O18">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941186</v>
+        <v>0.6350852881941171</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567145</v>
+        <v>60.00000079567172</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S18">
-        <v>120.0000018002036</v>
+        <v>120.0000018002035</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297029</v>
+        <v>0.6350853419297027</v>
       </c>
       <c r="O19">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852860423615</v>
+        <v>0.6350852860423596</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678089</v>
+        <v>60.00000081678122</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
-        <v>120.0000020942209</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533846</v>
+        <v>0.6350853448533843</v>
       </c>
       <c r="O20">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285435</v>
+        <v>0.6350852844285414</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261299</v>
+        <v>60.00000083261335</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S20">
-        <v>120.0000023147339</v>
+        <v>120.0000023147338</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279452</v>
+        <v>0.6350853458279447</v>
       </c>
       <c r="O21">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.635085283890604</v>
+        <v>0.6350852838906019</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789035</v>
+        <v>60.00000083789072</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S21">
-        <v>120.0000023882382</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391564</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522412838</v>
+        <v>333.3333522412837</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11206,13 +11206,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219868</v>
+        <v>0.01094540887219867</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868895</v>
+        <v>0.01094540888868894</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
@@ -11224,16 +11224,16 @@
         <v>0.1094540870674484</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664725</v>
+        <v>0.6350853099664726</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585755</v>
+        <v>0.6350853098585757</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061768</v>
+        <v>60.00000000061765</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11242,7 +11242,7 @@
         <v>120.0000000049951</v>
       </c>
       <c r="T2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -11286,19 +11286,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372389</v>
+        <v>0.6350853281372394</v>
       </c>
       <c r="O3">
         <v>1.100000023884845</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615864</v>
+        <v>0.6350852933615859</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271604</v>
+        <v>60.00000077271602</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S3">
         <v>120.0000010386398</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538896</v>
+        <v>0.6350853466538903</v>
       </c>
       <c r="O4">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P4">
-        <v>0.63508528314074</v>
+        <v>0.6350852831407398</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298584</v>
+        <v>60.00000087298592</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S4">
-        <v>120.000002435222</v>
+        <v>120.0000024352221</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,22 +11410,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556465</v>
+        <v>0.6350853427556473</v>
       </c>
       <c r="O5">
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.6350852852924965</v>
+        <v>0.6350852852924957</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187672</v>
+        <v>60.00000085187669</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S5">
-        <v>120.0000021412046</v>
+        <v>120.0000021412047</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,19 +11472,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030094</v>
+        <v>0.6350853486030102</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648603</v>
+        <v>0.6350852820648596</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354103</v>
+        <v>60.00000088354097</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S6">
         <v>120.0000025822306</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758119</v>
+        <v>0.635085353475813</v>
       </c>
       <c r="O7">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751633</v>
+        <v>0.6350852793751628</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992796</v>
+        <v>60.00000090992791</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S7">
-        <v>120.0000029497521</v>
+        <v>120.0000029497522</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,22 +11596,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853544503724</v>
+        <v>0.6350853544503736</v>
       </c>
       <c r="O8">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372239</v>
+        <v>0.6350852788372232</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520536</v>
+        <v>60.0000009152053</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S8">
-        <v>120.0000030232565</v>
+        <v>120.0000030232566</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994932</v>
+        <v>0.6350853563994943</v>
       </c>
       <c r="O9">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613454</v>
+        <v>0.6350852777613447</v>
       </c>
       <c r="Q9">
-        <v>60.0000009257601</v>
+        <v>60.00000092576005</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S9">
-        <v>120.0000031702651</v>
+        <v>120.0000031702652</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11720,22 +11720,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635085358348614</v>
+        <v>0.635085358348615</v>
       </c>
       <c r="O10">
         <v>1.100000023884847</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854665</v>
+        <v>0.6350852766854659</v>
       </c>
       <c r="Q10">
-        <v>60.00000093631488</v>
+        <v>60.00000093631485</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S10">
-        <v>120.0000033172737</v>
+        <v>120.0000033172738</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231744</v>
+        <v>0.6350853593231757</v>
       </c>
       <c r="O11">
         <v>1.100000023884847</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475271</v>
+        <v>0.6350852761475264</v>
       </c>
       <c r="Q11">
-        <v>60.00000094159229</v>
+        <v>60.00000094159224</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S11">
-        <v>120.000003390778</v>
+        <v>120.0000033907781</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,22 +11844,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853310609202</v>
+        <v>0.6350853310609209</v>
       </c>
       <c r="O12">
         <v>1.100000023884845</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477676</v>
+        <v>0.6350852917477673</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854826</v>
+        <v>60.00000078854823</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S12">
-        <v>120.0000012591527</v>
+        <v>120.0000012591528</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,22 +11906,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853310609204</v>
+        <v>0.6350853310609208</v>
       </c>
       <c r="O13">
         <v>1.100000023884845</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477678</v>
+        <v>0.6350852917477674</v>
       </c>
       <c r="Q13">
         <v>60.00000078854823</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
-        <v>120.0000012591527</v>
+        <v>120.0000012591528</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11968,19 +11968,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846023</v>
+        <v>0.6350853339846029</v>
       </c>
       <c r="O14">
         <v>1.100000023884845</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339511</v>
+        <v>0.6350852901339507</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438014</v>
+        <v>60.00000080438017</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S14">
         <v>120.0000014796658</v>
@@ -12030,16 +12030,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335933723</v>
+        <v>0.6350853359337236</v>
       </c>
       <c r="O15">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580719</v>
+        <v>0.6350852890580713</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493506</v>
+        <v>60.00000081493504</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
@@ -12092,22 +12092,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853300863599</v>
+        <v>0.6350853300863605</v>
       </c>
       <c r="O16">
         <v>1.100000023884845</v>
       </c>
       <c r="P16">
-        <v>0.6350852922857073</v>
+        <v>0.6350852922857071</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327084</v>
+        <v>60.00000078327081</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S16">
-        <v>120.0000011856484</v>
+        <v>120.0000011856485</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -12154,13 +12154,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853300863599</v>
+        <v>0.6350853300863603</v>
       </c>
       <c r="O17">
         <v>1.100000023884845</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857074</v>
+        <v>0.6350852922857071</v>
       </c>
       <c r="Q17">
         <v>60.00000078327083</v>
@@ -12169,7 +12169,7 @@
         <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>120.0000011856484</v>
+        <v>120.0000011856485</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574051</v>
+        <v>0.6350853388574057</v>
       </c>
       <c r="O18">
         <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442549</v>
+        <v>0.6350852874442544</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076693</v>
+        <v>60.00000083076698</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S18">
-        <v>120.0000018471874</v>
+        <v>120.0000018471875</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556473</v>
+        <v>0.6350853427556479</v>
       </c>
       <c r="O19">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924975</v>
+        <v>0.6350852852924973</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187637</v>
+        <v>60.00000085187644</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S19">
-        <v>120.0000021412047</v>
+        <v>120.0000021412048</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793289</v>
+        <v>0.6350853456793296</v>
       </c>
       <c r="O20">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786794</v>
+        <v>0.6350852836786793</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770847</v>
+        <v>60.00000086770853</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S20">
-        <v>120.0000023617177</v>
+        <v>120.0000023617178</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538896</v>
+        <v>0.6350853466538902</v>
       </c>
       <c r="O21">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.63508528314074</v>
+        <v>0.6350852831407399</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298584</v>
+        <v>60.00000087298591</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S21">
-        <v>120.000002435222</v>
+        <v>120.0000024352221</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12610,10 +12610,10 @@
         <v>1.09649687783607</v>
       </c>
       <c r="Q3">
-        <v>29.92212961550543</v>
+        <v>29.92212961550542</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246566712658</v>
@@ -12672,10 +12672,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q4">
-        <v>29.92212962977439</v>
+        <v>29.92212962977441</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -13044,7 +13044,7 @@
         <v>1.096496877520936</v>
       </c>
       <c r="Q10">
-        <v>29.92212963878638</v>
+        <v>29.92212963878639</v>
       </c>
       <c r="R10">
         <v>-89.99999999999635</v>
@@ -13295,7 +13295,7 @@
         <v>29.92212962001141</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566747267</v>
@@ -13543,7 +13543,7 @@
         <v>29.92212962376642</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S18">
         <v>149.5246566776108</v>
@@ -13667,7 +13667,7 @@
         <v>29.9221296290234</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.5246566816485</v>
@@ -13726,10 +13726,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q21">
-        <v>29.92212962977439</v>
+        <v>29.92212962977441</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14332,13 +14332,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219868</v>
+        <v>0.01094540887219867</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868895</v>
+        <v>0.01094540888868894</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
@@ -14421,10 +14421,10 @@
         <v>1.096496877823413</v>
       </c>
       <c r="Q3">
-        <v>29.922129616241</v>
+        <v>29.92212961624099</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246566715823</v>
@@ -14486,7 +14486,7 @@
         <v>29.92212963050997</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566825418</v>
@@ -14669,7 +14669,7 @@
         <v>1.096496877559106</v>
       </c>
       <c r="Q7">
-        <v>29.92212963576696</v>
+        <v>29.92212963576697</v>
       </c>
       <c r="R7">
         <v>-89.99999999999635</v>
@@ -14731,7 +14731,7 @@
         <v>1.09649687754894</v>
       </c>
       <c r="Q8">
-        <v>29.92212963651796</v>
+        <v>29.92212963651797</v>
       </c>
       <c r="R8">
         <v>-89.99999999999635</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496877498112</v>
       </c>
       <c r="Q11">
-        <v>29.92212964027296</v>
+        <v>29.92212964027295</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -14976,10 +14976,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P12">
-        <v>1.096496877792916</v>
+        <v>1.096496877792915</v>
       </c>
       <c r="Q12">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R12">
         <v>-89.99999999999635</v>
@@ -15038,10 +15038,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P13">
-        <v>1.096496877792916</v>
+        <v>1.096496877792915</v>
       </c>
       <c r="Q13">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R13">
         <v>-89.99999999999635</v>
@@ -15106,7 +15106,7 @@
         <v>29.92212962074699</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566750432</v>
@@ -15165,7 +15165,7 @@
         <v>1.096496877742087</v>
       </c>
       <c r="Q15">
-        <v>29.92212962224898</v>
+        <v>29.92212962224899</v>
       </c>
       <c r="R15">
         <v>-89.99999999999635</v>
@@ -15351,10 +15351,10 @@
         <v>1.096496877711591</v>
       </c>
       <c r="Q18">
-        <v>29.92212962450199</v>
+        <v>29.92212962450198</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S18">
         <v>149.5246566779273</v>
@@ -15540,7 +15540,7 @@
         <v>29.92212963050997</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566825418</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383261</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120193</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15647,10 +15647,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
-        <v>0.1243796444003413</v>
+        <v>0.1243796444003412</v>
       </c>
       <c r="J2">
         <v>0.01243796467526077</v>
@@ -15671,10 +15671,10 @@
         <v>0.9999999999962953</v>
       </c>
       <c r="P2">
-        <v>0.577350269169092</v>
+        <v>0.5773502691690919</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.0000000007539</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15683,7 +15683,7 @@
         <v>120.0000000016444</v>
       </c>
       <c r="T2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -15727,22 +15727,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857104</v>
+        <v>0.5773502855857101</v>
       </c>
       <c r="O3">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P3">
         <v>0.5773502543027883</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610993</v>
+        <v>60.00000076610994</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>120.0000010262632</v>
+        <v>120.0000010262631</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888182</v>
+        <v>0.5773503058881817</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802616</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007625</v>
+        <v>60.00000027007636</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>120.000003019149</v>
+        <v>120.0000030191488</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,22 +15851,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613978</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O5">
         <v>0.9999999999962955</v>
       </c>
       <c r="P5">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060576</v>
       </c>
       <c r="Q5">
         <v>60.00000037450432</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
-        <v>120.0000025995941</v>
+        <v>120.000002599594</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -15913,22 +15913,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.577350308025285</v>
+        <v>0.5773503080252843</v>
       </c>
       <c r="O6">
         <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673659</v>
+        <v>0.5773502478673654</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786209</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S6">
-        <v>120.0000032289265</v>
+        <v>120.0000032289264</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -15975,22 +15975,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680408</v>
+        <v>0.5773503133680401</v>
       </c>
       <c r="O7">
         <v>0.9999999999962951</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351224</v>
+        <v>0.5773502463351219</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732689</v>
+        <v>60.00000008732693</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S7">
-        <v>120.0000037533702</v>
+        <v>120.00000375337</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16037,22 +16037,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365919</v>
+        <v>0.5773503144365911</v>
       </c>
       <c r="O8">
         <v>0.9999999999962949</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286738</v>
+        <v>0.5773502460286731</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121984</v>
+        <v>60.00000006121988</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S8">
-        <v>120.0000038582589</v>
+        <v>120.0000038582587</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -16099,22 +16099,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736942</v>
+        <v>0.5773503165736935</v>
       </c>
       <c r="O9">
         <v>0.999999999996295</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157765</v>
+        <v>0.577350245415776</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900577</v>
+        <v>60.00000000900581</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S9">
-        <v>120.0000040680364</v>
+        <v>120.0000040680362</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -16161,22 +16161,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107966</v>
+        <v>0.577350318710796</v>
       </c>
       <c r="O10">
         <v>0.9999999999962949</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028792</v>
+        <v>0.5773502448028787</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679173</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S10">
-        <v>120.0000042778138</v>
+        <v>120.0000042778137</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -16223,22 +16223,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793477</v>
+        <v>0.5773503197793473</v>
       </c>
       <c r="O11">
         <v>0.9999999999962949</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964307</v>
+        <v>0.5773502444964301</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068465</v>
+        <v>59.99999993068467</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S11">
-        <v>120.0000043827026</v>
+        <v>120.0000043827024</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16285,22 +16285,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913642</v>
+        <v>0.5773502887913637</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P12">
         <v>0.5773502533834421</v>
       </c>
       <c r="Q12">
-        <v>60.0000006877888</v>
+        <v>60.00000068778882</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
-        <v>120.0000013409294</v>
+        <v>120.0000013409293</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16347,22 +16347,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913642</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P13">
         <v>0.5773502533834421</v>
       </c>
       <c r="Q13">
-        <v>60.0000006877888</v>
+        <v>60.00000068778881</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S13">
-        <v>120.0000013409294</v>
+        <v>120.0000013409293</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -16409,16 +16409,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970173</v>
+        <v>0.577350291997017</v>
       </c>
       <c r="O14">
         <v>0.9999999999962959</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640955</v>
       </c>
       <c r="Q14">
-        <v>60.0000006094677</v>
+        <v>60.00000060946775</v>
       </c>
       <c r="R14">
         <v>-89.99999999999589</v>
@@ -16471,22 +16471,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341199</v>
+        <v>0.5773502941341193</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511987</v>
+        <v>0.5773502518511985</v>
       </c>
       <c r="Q15">
         <v>60.00000055725361</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S15">
-        <v>120.000001865373</v>
+        <v>120.0000018653729</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -16533,19 +16533,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228128</v>
+        <v>0.5773502877228125</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P16">
         <v>0.5773502536898908</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389584</v>
+        <v>60.00000071389587</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>120.0000012360406</v>
@@ -16595,19 +16595,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.577350287722813</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O17">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P17">
         <v>0.5773502536898908</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389584</v>
+        <v>60.00000071389586</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S17">
         <v>120.0000012360406</v>
@@ -16657,22 +16657,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397729</v>
+        <v>0.5773502973397727</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318522</v>
+        <v>0.5773502509318517</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893252</v>
+        <v>60.00000047893261</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S18">
-        <v>120.0000021800392</v>
+        <v>120.0000021800391</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,19 +16719,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139773</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060573</v>
+        <v>0.5773502497060565</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450439</v>
+        <v>60.00000037450449</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S19">
         <v>120.000002599594</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196308</v>
+        <v>0.5773503048196306</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867112</v>
+        <v>0.5773502487867103</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618329</v>
+        <v>60.00000029618341</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>120.0000029142603</v>
+        <v>120.0000029142601</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881819</v>
+        <v>0.5773503058881817</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802616</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007626</v>
+        <v>60.00000027007636</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>120.000003019149</v>
+        <v>120.0000030191488</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383261</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120193</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16962,10 +16962,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
-        <v>0.1243796444003413</v>
+        <v>0.1243796444003412</v>
       </c>
       <c r="J2">
         <v>0.01243796467526077</v>
@@ -16986,10 +16986,10 @@
         <v>0.9999999999962953</v>
       </c>
       <c r="P2">
-        <v>0.577350269169092</v>
+        <v>0.5773502691690919</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.0000000007539</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -16998,7 +16998,7 @@
         <v>120.0000000016444</v>
       </c>
       <c r="T2">
-        <v>46.18802315383259</v>
+        <v>46.18802315383261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -17042,22 +17042,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857104</v>
+        <v>0.5773502855857101</v>
       </c>
       <c r="O3">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P3">
         <v>0.5773502543027883</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610993</v>
+        <v>60.00000076610994</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>120.0000010262632</v>
+        <v>120.0000010262631</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888182</v>
+        <v>0.5773503058881817</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802616</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007625</v>
+        <v>60.00000027007636</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>120.000003019149</v>
+        <v>120.0000030191488</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,22 +17166,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613978</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O5">
         <v>0.9999999999962955</v>
       </c>
       <c r="P5">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060576</v>
       </c>
       <c r="Q5">
         <v>60.00000037450432</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
-        <v>120.0000025995941</v>
+        <v>120.000002599594</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -17228,22 +17228,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.577350308025285</v>
+        <v>0.5773503080252843</v>
       </c>
       <c r="O6">
         <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673659</v>
+        <v>0.5773502478673654</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786209</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S6">
-        <v>120.0000032289265</v>
+        <v>120.0000032289264</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -17290,22 +17290,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680408</v>
+        <v>0.5773503133680401</v>
       </c>
       <c r="O7">
         <v>0.9999999999962951</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351224</v>
+        <v>0.5773502463351219</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732689</v>
+        <v>60.00000008732693</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S7">
-        <v>120.0000037533702</v>
+        <v>120.00000375337</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17352,22 +17352,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365919</v>
+        <v>0.5773503144365911</v>
       </c>
       <c r="O8">
         <v>0.9999999999962949</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286738</v>
+        <v>0.5773502460286731</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121984</v>
+        <v>60.00000006121988</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S8">
-        <v>120.0000038582589</v>
+        <v>120.0000038582587</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -17414,22 +17414,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736942</v>
+        <v>0.5773503165736935</v>
       </c>
       <c r="O9">
         <v>0.999999999996295</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157765</v>
+        <v>0.577350245415776</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900577</v>
+        <v>60.00000000900581</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S9">
-        <v>120.0000040680364</v>
+        <v>120.0000040680362</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -17476,22 +17476,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107966</v>
+        <v>0.577350318710796</v>
       </c>
       <c r="O10">
         <v>0.9999999999962949</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028792</v>
+        <v>0.5773502448028787</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679173</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S10">
-        <v>120.0000042778138</v>
+        <v>120.0000042778137</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -17538,22 +17538,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793477</v>
+        <v>0.5773503197793473</v>
       </c>
       <c r="O11">
         <v>0.9999999999962949</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964307</v>
+        <v>0.5773502444964301</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068465</v>
+        <v>59.99999993068467</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S11">
-        <v>120.0000043827026</v>
+        <v>120.0000043827024</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17600,22 +17600,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913642</v>
+        <v>0.5773502887913637</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P12">
         <v>0.5773502533834421</v>
       </c>
       <c r="Q12">
-        <v>60.0000006877888</v>
+        <v>60.00000068778882</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
-        <v>120.0000013409294</v>
+        <v>120.0000013409293</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17662,22 +17662,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913642</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P13">
         <v>0.5773502533834421</v>
       </c>
       <c r="Q13">
-        <v>60.0000006877888</v>
+        <v>60.00000068778881</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S13">
-        <v>120.0000013409294</v>
+        <v>120.0000013409293</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -17724,16 +17724,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970173</v>
+        <v>0.577350291997017</v>
       </c>
       <c r="O14">
         <v>0.9999999999962959</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640955</v>
       </c>
       <c r="Q14">
-        <v>60.0000006094677</v>
+        <v>60.00000060946775</v>
       </c>
       <c r="R14">
         <v>-89.99999999999589</v>
@@ -17786,22 +17786,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341199</v>
+        <v>0.5773502941341193</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511987</v>
+        <v>0.5773502518511985</v>
       </c>
       <c r="Q15">
         <v>60.00000055725361</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S15">
-        <v>120.000001865373</v>
+        <v>120.0000018653729</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -17848,19 +17848,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228128</v>
+        <v>0.5773502877228125</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P16">
         <v>0.5773502536898908</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389584</v>
+        <v>60.00000071389587</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>120.0000012360406</v>
@@ -17910,19 +17910,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.577350287722813</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O17">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P17">
         <v>0.5773502536898908</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389584</v>
+        <v>60.00000071389586</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S17">
         <v>120.0000012360406</v>
@@ -17972,22 +17972,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397729</v>
+        <v>0.5773502973397727</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318522</v>
+        <v>0.5773502509318517</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893252</v>
+        <v>60.00000047893261</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S18">
-        <v>120.0000021800392</v>
+        <v>120.0000021800391</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,19 +18034,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139773</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060573</v>
+        <v>0.5773502497060565</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450439</v>
+        <v>60.00000037450449</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S19">
         <v>120.000002599594</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196308</v>
+        <v>0.5773503048196306</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867112</v>
+        <v>0.5773502487867103</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618329</v>
+        <v>60.00000029618341</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>120.0000029142603</v>
+        <v>120.0000029142601</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881819</v>
+        <v>0.5773503058881817</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802616</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007626</v>
+        <v>60.00000027007636</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>120.000003019149</v>
+        <v>120.0000030191488</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18277,10 +18277,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
-        <v>0.1243796444003413</v>
+        <v>0.1243796444003412</v>
       </c>
       <c r="J2">
         <v>0.01243796467526077</v>
@@ -18425,7 +18425,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553426</v>
+        <v>0.9963798867553425</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
@@ -18729,7 +18729,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500486</v>
+        <v>0.9900480150500488</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
@@ -18797,7 +18797,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566953</v>
+        <v>0.9963798866566952</v>
       </c>
       <c r="Q10">
         <v>29.91230410523937</v>
@@ -19048,7 +19048,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252076</v>
+        <v>29.91230408252077</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -19479,7 +19479,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553426</v>
+        <v>0.9963798867553425</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -19592,10 +19592,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
-        <v>0.1243796444003413</v>
+        <v>0.1243796444003412</v>
       </c>
       <c r="J2">
         <v>0.01243796467526077</v>
@@ -19740,7 +19740,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553426</v>
+        <v>0.9963798867553425</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500486</v>
+        <v>0.9900480150500488</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
@@ -20112,7 +20112,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566953</v>
+        <v>0.9963798866566952</v>
       </c>
       <c r="Q10">
         <v>29.91230410523937</v>
@@ -20363,7 +20363,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252076</v>
+        <v>29.91230408252077</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20794,7 +20794,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553426</v>
+        <v>0.9963798867553425</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -20892,7 +20892,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.73503018874287</v>
       </c>
       <c r="D2">
         <v>57.73503019620926</v>
@@ -20913,7 +20913,7 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686275</v>
@@ -20931,10 +20931,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098608015</v>
+        <v>0.6350853098608014</v>
       </c>
       <c r="Q2">
-        <v>4.228446394548947E-09</v>
+        <v>4.228469702148838E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20987,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852940976681</v>
+        <v>0.635085294097668</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -20996,13 +20996,13 @@
         <v>0.6350853272056293</v>
       </c>
       <c r="Q3">
-        <v>9.908897321974448E-07</v>
+        <v>9.908897051472066E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578329</v>
+        <v>-179.9999992578328</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,22 +21049,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768194</v>
+        <v>0.6350852838768177</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853457222794</v>
+        <v>0.6350853457222788</v>
       </c>
       <c r="Q4">
-        <v>2.387471857301227E-06</v>
+        <v>2.387471733711876E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991575631</v>
+        <v>-179.9999991575629</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285743</v>
+        <v>0.6350852860285739</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -21120,13 +21120,13 @@
         <v>0.6350853418240366</v>
       </c>
       <c r="Q5">
-        <v>2.093454441761202E-06</v>
+        <v>2.093454434157264E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786723</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -21173,7 +21173,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009368</v>
+        <v>0.6350852828009365</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -21182,13 +21182,13 @@
         <v>0.6350853476713992</v>
       </c>
       <c r="Q6">
-        <v>2.534480347995371E-06</v>
+        <v>2.534480346352188E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991470081</v>
+        <v>-179.999999147008</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112388</v>
+        <v>0.6350852801112382</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525442018</v>
+        <v>0.6350853525442014</v>
       </c>
       <c r="Q7">
-        <v>2.90200190273767E-06</v>
+        <v>2.902001942278079E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999991206213</v>
+        <v>-179.9999991206212</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,16 +21297,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732991</v>
+        <v>0.6350852795732985</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187623</v>
+        <v>0.6350853535187622</v>
       </c>
       <c r="Q8">
-        <v>2.975506207373844E-06</v>
+        <v>2.975506246988736E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -21359,16 +21359,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974198</v>
+        <v>0.6350852784974192</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853554678831</v>
+        <v>0.635085355467883</v>
       </c>
       <c r="Q9">
-        <v>3.122514843396424E-06</v>
+        <v>3.122514877153707E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,7 +21421,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215405</v>
+        <v>0.63508527742154</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -21430,13 +21430,13 @@
         <v>0.6350853574170041</v>
       </c>
       <c r="Q10">
-        <v>3.269523472337161E-06</v>
+        <v>3.269523500311436E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9999990942344</v>
+        <v>-179.9999990942343</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,22 +21483,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836007</v>
+        <v>0.6350852768836004</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915645</v>
+        <v>0.6350853583915644</v>
       </c>
       <c r="Q11">
-        <v>3.343027784121441E-06</v>
+        <v>3.34302781787848E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.999999088957</v>
+        <v>-179.9999990889569</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -21551,16 +21551,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853301293106</v>
+        <v>0.6350853301293107</v>
       </c>
       <c r="Q12">
-        <v>1.211402675068545E-06</v>
+        <v>1.211402615679319E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992420008</v>
+        <v>-179.9999992420007</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -21607,7 +21607,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838488</v>
+        <v>0.6350852924838486</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -21616,13 +21616,13 @@
         <v>0.6350853301293106</v>
       </c>
       <c r="Q13">
-        <v>1.211402637258142E-06</v>
+        <v>1.211402615990488E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992420008</v>
+        <v>-179.9999992420007</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700314</v>
+        <v>0.6350852908700311</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -21678,13 +21678,13 @@
         <v>0.6350853330529924</v>
       </c>
       <c r="Q14">
-        <v>1.43191563590059E-06</v>
+        <v>1.431915577652571E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999992261688</v>
+        <v>-179.9999992261687</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21737,16 +21737,16 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021131</v>
+        <v>0.6350853350021132</v>
       </c>
       <c r="Q15">
-        <v>1.578924232098705E-06</v>
+        <v>1.578924217136667E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.999999215614</v>
+        <v>-179.9999992156139</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -21793,16 +21793,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217887</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547502</v>
+        <v>0.6350853291547504</v>
       </c>
       <c r="Q16">
-        <v>1.137898365848248E-06</v>
+        <v>1.137898300676258E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21864,13 +21864,13 @@
         <v>0.6350853291547502</v>
       </c>
       <c r="Q17">
-        <v>1.137898328037846E-06</v>
+        <v>1.137898306770253E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992472782</v>
+        <v>-179.9999992472781</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803345</v>
+        <v>0.6350852881803336</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257951</v>
+        <v>0.635085337925795</v>
       </c>
       <c r="Q18">
-        <v>1.79943725808579E-06</v>
+        <v>1.799437161165736E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999999199782</v>
+        <v>-179.9999991997819</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,22 +21979,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285772</v>
+        <v>0.6350852860285758</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240372</v>
+        <v>0.6350853418240371</v>
       </c>
       <c r="Q19">
-        <v>2.093454565666771E-06</v>
+        <v>2.093454446029094E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786725</v>
+        <v>-179.9999991786724</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,22 +22041,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085284414759</v>
+        <v>0.6350852844147575</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477189</v>
+        <v>0.6350853447477184</v>
       </c>
       <c r="Q20">
-        <v>2.313967540670682E-06</v>
+        <v>2.313967413665625E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991628404</v>
+        <v>-179.9999991628403</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -22103,22 +22103,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768194</v>
+        <v>0.635085283876818</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853457222794</v>
+        <v>0.635085345722279</v>
       </c>
       <c r="Q21">
-        <v>2.3874718515184E-06</v>
+        <v>2.387471724513282E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991575631</v>
+        <v>-179.9999991575629</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -22207,40 +22207,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620923</v>
+        <v>57.73503019620924</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545257</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448019</v>
+        <v>0.6350853098448016</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228442635118158E-09</v>
+        <v>4.228442483097324E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22258,7 +22258,7 @@
         <v>-179.9999999948365</v>
       </c>
       <c r="T2">
-        <v>57.7350301918306</v>
+        <v>57.73503019183062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -22302,7 +22302,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478038</v>
+        <v>0.6350852933478036</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -22311,13 +22311,13 @@
         <v>0.635085328031573</v>
       </c>
       <c r="Q3">
-        <v>1.03787372739117E-06</v>
+        <v>1.037873700384737E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992227374</v>
+        <v>-179.9999992227375</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.635085283126955</v>
+        <v>0.6350852831269541</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482232</v>
+        <v>0.635085346548224</v>
       </c>
       <c r="Q4">
-        <v>2.434455870402535E-06</v>
+        <v>2.43445584435472E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22426,16 +22426,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.63508528527871</v>
+        <v>0.6350852852787097</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853426499804</v>
+        <v>0.6350853426499805</v>
       </c>
       <c r="Q5">
-        <v>2.140438449380155E-06</v>
+        <v>2.140438445907935E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -22488,7 +22488,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510724</v>
+        <v>0.6350852820510718</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -22497,7 +22497,7 @@
         <v>0.6350853484973433</v>
       </c>
       <c r="Q6">
-        <v>2.581464355263343E-06</v>
+        <v>2.581464355316177E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613745</v>
+        <v>0.6350852793613738</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701457</v>
+        <v>0.6350853533701456</v>
       </c>
       <c r="Q7">
-        <v>2.94898591314466E-06</v>
+        <v>2.948985954135927E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22612,16 +22612,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234348</v>
+        <v>0.6350852788234341</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447061</v>
+        <v>0.6350853543447059</v>
       </c>
       <c r="Q8">
-        <v>3.022490203726509E-06</v>
+        <v>3.022490251410193E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475556</v>
+        <v>0.635085277747555</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -22683,7 +22683,7 @@
         <v>0.6350853562938271</v>
       </c>
       <c r="Q9">
-        <v>3.169498854117304E-06</v>
+        <v>3.169498895108135E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -22736,16 +22736,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716761</v>
+        <v>0.6350852766716756</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429483</v>
+        <v>0.635085358242948</v>
       </c>
       <c r="Q10">
-        <v>3.316507477484474E-06</v>
+        <v>3.316507512692216E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22798,16 +22798,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337363</v>
+        <v>0.6350852761337357</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175087</v>
+        <v>0.6350853592175083</v>
       </c>
       <c r="Q11">
-        <v>3.390011795156211E-06</v>
+        <v>3.390011830363866E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22866,10 +22866,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552548</v>
+        <v>0.6350853309552549</v>
       </c>
       <c r="Q12">
-        <v>1.258386680855699E-06</v>
+        <v>1.258386621353751E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552545</v>
+        <v>0.6350853309552548</v>
       </c>
       <c r="Q13">
-        <v>1.258386658009795E-06</v>
+        <v>1.258386625220183E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201672</v>
+        <v>0.6350852901201669</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789365</v>
+        <v>0.6350853338789366</v>
       </c>
       <c r="Q14">
-        <v>1.478899650935176E-06</v>
+        <v>1.478899633892066E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -23055,7 +23055,7 @@
         <v>0.635085335828057</v>
       </c>
       <c r="Q15">
-        <v>1.625908245123437E-06</v>
+        <v>1.625908231575457E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -23114,10 +23114,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806944</v>
       </c>
       <c r="Q16">
-        <v>1.184882371530773E-06</v>
+        <v>1.184882306246085E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23170,16 +23170,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719243</v>
+        <v>0.6350852922719241</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806944</v>
       </c>
       <c r="Q17">
-        <v>1.184882348684868E-06</v>
+        <v>1.184882315895345E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852874304703</v>
+        <v>0.6350852874304697</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517392</v>
+        <v>0.6350853387517397</v>
       </c>
       <c r="Q18">
-        <v>1.846421270655837E-06</v>
+        <v>1.846421234765575E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,16 +23294,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787128</v>
+        <v>0.6350852852787119</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499813</v>
+        <v>0.6350853426499817</v>
       </c>
       <c r="Q19">
-        <v>2.140438578349558E-06</v>
+        <v>2.140438527287377E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -23356,22 +23356,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852836648946</v>
+        <v>0.6350852836648936</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736629</v>
+        <v>0.6350853455736636</v>
       </c>
       <c r="Q20">
-        <v>2.360951559450186E-06</v>
+        <v>2.360951521470621E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991277449</v>
+        <v>-179.999999127745</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.635085283126955</v>
+        <v>0.6350852831269541</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482232</v>
+        <v>0.635085346548224</v>
       </c>
       <c r="Q21">
-        <v>2.434455870402535E-06</v>
+        <v>2.434455838205709E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686275</v>
@@ -23939,7 +23939,7 @@
         <v>29.52465668684491</v>
       </c>
       <c r="R8">
-        <v>-90.5576808185627</v>
+        <v>-90.55768081856269</v>
       </c>
       <c r="S8">
         <v>149.9221296357769</v>
@@ -23992,7 +23992,7 @@
         <v>1.09649687753996</v>
       </c>
       <c r="O9">
-        <v>1.086862152117769</v>
+        <v>1.08686215211777</v>
       </c>
       <c r="P9">
         <v>1.090352557044242</v>
@@ -24119,7 +24119,7 @@
         <v>1.086862152100594</v>
       </c>
       <c r="P11">
-        <v>1.09035255705797</v>
+        <v>1.090352557057971</v>
       </c>
       <c r="Q11">
         <v>29.52465668972898</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O12">
         <v>1.08686215226662</v>
@@ -24184,7 +24184,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q12">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R12">
         <v>-90.55768085064017</v>
@@ -24237,7 +24237,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O13">
         <v>1.08686215226662</v>
@@ -24246,7 +24246,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q13">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R13">
         <v>-90.55768085064017</v>
@@ -24618,7 +24618,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q19">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R19">
         <v>-90.55768083460144</v>
@@ -24677,10 +24677,10 @@
         <v>1.086862152180745</v>
       </c>
       <c r="P20">
-        <v>1.090352556993903</v>
+        <v>1.090352556993902</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165357</v>
+        <v>29.52465668165358</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
@@ -24852,19 +24852,19 @@
         <v>5.123517322003456</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -25006,7 +25006,7 @@
         <v>29.52465668254692</v>
       </c>
       <c r="R4">
-        <v>-90.55768082819935</v>
+        <v>-90.55768082819934</v>
       </c>
       <c r="S4">
         <v>149.9221296305045</v>
@@ -25251,10 +25251,10 @@
         <v>1.090352557034103</v>
       </c>
       <c r="Q8">
-        <v>29.52465668716143</v>
+        <v>29.52465668716144</v>
       </c>
       <c r="R8">
-        <v>-90.55768081750686</v>
+        <v>-90.55768081750685</v>
       </c>
       <c r="S8">
         <v>149.9221296365125</v>
@@ -25378,7 +25378,7 @@
         <v>29.52465668946869</v>
       </c>
       <c r="R10">
-        <v>-90.55768081216061</v>
+        <v>-90.5576808121606</v>
       </c>
       <c r="S10">
         <v>149.9221296395165</v>
@@ -25685,7 +25685,7 @@
         <v>1.090352556947153</v>
       </c>
       <c r="Q15">
-        <v>29.52465667620195</v>
+        <v>29.52465667620196</v>
       </c>
       <c r="R15">
         <v>-90.55768084290152</v>
@@ -25809,7 +25809,7 @@
         <v>1.090352556919695</v>
       </c>
       <c r="Q17">
-        <v>29.52465667274106</v>
+        <v>29.52465667274107</v>
       </c>
       <c r="R17">
         <v>-90.55768085092089</v>
@@ -25998,7 +25998,7 @@
         <v>29.5246566819701</v>
       </c>
       <c r="R20">
-        <v>-90.55768082953591</v>
+        <v>-90.5576808295359</v>
       </c>
       <c r="S20">
         <v>149.9221296297535</v>
@@ -26060,7 +26060,7 @@
         <v>29.52465668254692</v>
       </c>
       <c r="R21">
-        <v>-90.55768082819935</v>
+        <v>-90.55768082819934</v>
       </c>
       <c r="S21">
         <v>149.9221296305045</v>
@@ -26152,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
         <v>46.18802315729566</v>
@@ -26179,7 +26179,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534686053639369E-09</v>
+        <v>4.534685832509369E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393529</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594382</v>
+        <v>0.5773502855594386</v>
       </c>
       <c r="Q3">
-        <v>1.029154388094002E-06</v>
+        <v>1.029154323844109E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,16 +26309,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168281</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619076</v>
+        <v>0.5773503058619083</v>
       </c>
       <c r="Q4">
-        <v>3.022040124202027E-06</v>
+        <v>3.02204011600386E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426238</v>
+        <v>0.5773502497426236</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877042</v>
       </c>
       <c r="Q5">
-        <v>2.602485413228526E-06</v>
+        <v>2.602485247712778E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222532</v>
+        <v>-179.9999996222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -26433,22 +26433,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039324</v>
+        <v>0.5773502479039319</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990102</v>
       </c>
       <c r="Q6">
-        <v>3.231817800459791E-06</v>
+        <v>3.231817613694168E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788954</v>
+        <v>-179.9999997788955</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.57735024637169</v>
+        <v>0.5773502463716891</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.5773503133417653</v>
       </c>
       <c r="Q7">
-        <v>3.756261475267204E-06</v>
+        <v>3.756261265318727E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094305</v>
+        <v>-179.9999999094306</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652413</v>
+        <v>0.5773502460652405</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103164</v>
       </c>
       <c r="Q8">
-        <v>3.86115019073975E-06</v>
+        <v>3.861149981268543E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355375</v>
+        <v>-179.9999999355377</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,22 +26619,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523441</v>
+        <v>0.5773502454523433</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.5773503165474184</v>
       </c>
       <c r="Q9">
-        <v>4.070927677278774E-06</v>
+        <v>4.070927467329855E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877516</v>
+        <v>-179.9999999877517</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394471</v>
+        <v>0.5773502448394463</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845207</v>
       </c>
       <c r="Q10">
-        <v>4.280705161081672E-06</v>
+        <v>4.280704944771379E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600198</v>
+        <v>179.9999999600196</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329987</v>
+        <v>0.5773502445329978</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530713</v>
+        <v>0.5773503197530717</v>
       </c>
       <c r="Q11">
-        <v>4.385593882518282E-06</v>
+        <v>4.385593672569011E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339127</v>
+        <v>179.9999999339126</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26811,10 +26811,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q12">
-        <v>1.343820607469392E-06</v>
+        <v>1.343820502292036E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26867,16 +26867,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200069</v>
+        <v>0.577350253420007</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.577350288765092</v>
       </c>
       <c r="Q13">
-        <v>1.343820590095815E-06</v>
+        <v>1.343820532206676E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.577350252500661</v>
+        <v>0.5773502525006605</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707447</v>
       </c>
       <c r="Q14">
-        <v>1.658486730902359E-06</v>
+        <v>1.658486700339944E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26997,10 +26997,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078464</v>
+        <v>0.5773502941078469</v>
       </c>
       <c r="Q15">
-        <v>1.868264266079072E-06</v>
+        <v>1.868264150224193E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27053,22 +27053,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264554</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q16">
-        <v>1.238931887251323E-06</v>
+        <v>1.238931775712945E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -27121,10 +27121,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.577350287696541</v>
       </c>
       <c r="Q17">
-        <v>1.238931863516636E-06</v>
+        <v>1.238931799266476E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684176</v>
+        <v>0.5773502509684172</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134995</v>
+        <v>0.5773502973135001</v>
       </c>
       <c r="Q18">
-        <v>2.182930344835941E-06</v>
+        <v>2.182930313987887E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -27239,16 +27239,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426231</v>
+        <v>0.5773502497426227</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877036</v>
+        <v>0.5773503015877042</v>
       </c>
       <c r="Q19">
-        <v>2.602485241141871E-06</v>
+        <v>2.602485216385853E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -27301,16 +27301,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232773</v>
+        <v>0.5773502488232768</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933566</v>
+        <v>0.5773503047933571</v>
       </c>
       <c r="Q20">
-        <v>2.917151399513529E-06</v>
+        <v>2.917151396897188E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,16 +27363,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168281</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619077</v>
+        <v>0.5773503058619083</v>
       </c>
       <c r="Q21">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040115224487E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -27963,7 +27963,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
         <v>46.18802315729566</v>
@@ -27990,7 +27990,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534686053639369E-09</v>
+        <v>4.534685832509369E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393529</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594382</v>
+        <v>0.5773502855594386</v>
       </c>
       <c r="Q3">
-        <v>1.029154388094002E-06</v>
+        <v>1.029154323844109E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,16 +28120,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168281</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619076</v>
+        <v>0.5773503058619083</v>
       </c>
       <c r="Q4">
-        <v>3.022040124202027E-06</v>
+        <v>3.02204011600386E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -28182,22 +28182,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426238</v>
+        <v>0.5773502497426236</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877042</v>
       </c>
       <c r="Q5">
-        <v>2.602485413228526E-06</v>
+        <v>2.602485247712778E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222532</v>
+        <v>-179.9999996222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -28244,22 +28244,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039324</v>
+        <v>0.5773502479039319</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990102</v>
       </c>
       <c r="Q6">
-        <v>3.231817800459791E-06</v>
+        <v>3.231817613694168E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788954</v>
+        <v>-179.9999997788955</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.57735024637169</v>
+        <v>0.5773502463716891</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.5773503133417653</v>
       </c>
       <c r="Q7">
-        <v>3.756261475267204E-06</v>
+        <v>3.756261265318727E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094305</v>
+        <v>-179.9999999094306</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652413</v>
+        <v>0.5773502460652405</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103164</v>
       </c>
       <c r="Q8">
-        <v>3.86115019073975E-06</v>
+        <v>3.861149981268543E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355375</v>
+        <v>-179.9999999355377</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,22 +28430,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523441</v>
+        <v>0.5773502454523433</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.5773503165474184</v>
       </c>
       <c r="Q9">
-        <v>4.070927677278774E-06</v>
+        <v>4.070927467329855E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877516</v>
+        <v>-179.9999999877517</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394471</v>
+        <v>0.5773502448394463</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845207</v>
       </c>
       <c r="Q10">
-        <v>4.280705161081672E-06</v>
+        <v>4.280704944771379E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600198</v>
+        <v>179.9999999600196</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329987</v>
+        <v>0.5773502445329978</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530713</v>
+        <v>0.5773503197530717</v>
       </c>
       <c r="Q11">
-        <v>4.385593882518282E-06</v>
+        <v>4.385593672569011E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339127</v>
+        <v>179.9999999339126</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28622,10 +28622,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q12">
-        <v>1.343820607469392E-06</v>
+        <v>1.343820502292036E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -28678,16 +28678,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200069</v>
+        <v>0.577350253420007</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.577350288765092</v>
       </c>
       <c r="Q13">
-        <v>1.343820590095815E-06</v>
+        <v>1.343820532206676E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -28740,16 +28740,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.577350252500661</v>
+        <v>0.5773502525006605</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707447</v>
       </c>
       <c r="Q14">
-        <v>1.658486730902359E-06</v>
+        <v>1.658486700339944E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -28808,10 +28808,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078464</v>
+        <v>0.5773502941078469</v>
       </c>
       <c r="Q15">
-        <v>1.868264266079072E-06</v>
+        <v>1.868264150224193E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -28864,22 +28864,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264554</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q16">
-        <v>1.238931887251323E-06</v>
+        <v>1.238931775712945E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -28932,10 +28932,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.577350287696541</v>
       </c>
       <c r="Q17">
-        <v>1.238931863516636E-06</v>
+        <v>1.238931799266476E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,16 +28988,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684176</v>
+        <v>0.5773502509684172</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134995</v>
+        <v>0.5773502973135001</v>
       </c>
       <c r="Q18">
-        <v>2.182930344835941E-06</v>
+        <v>2.182930313987887E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -29050,16 +29050,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426231</v>
+        <v>0.5773502497426227</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877036</v>
+        <v>0.5773503015877042</v>
       </c>
       <c r="Q19">
-        <v>2.602485241141871E-06</v>
+        <v>2.602485216385853E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -29112,16 +29112,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232773</v>
+        <v>0.5773502488232768</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933566</v>
+        <v>0.5773503047933571</v>
       </c>
       <c r="Q20">
-        <v>2.917151399513529E-06</v>
+        <v>2.917151396897188E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168281</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619077</v>
+        <v>0.5773503058619083</v>
       </c>
       <c r="Q21">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040115224487E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -29305,7 +29305,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -29435,7 +29435,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561808</v>
+        <v>0.9963798867561807</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -29500,7 +29500,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -29562,7 +29562,7 @@
         <v>0.9963798867397397</v>
       </c>
       <c r="O6">
-        <v>0.9864427565773003</v>
+        <v>0.9864427565773002</v>
       </c>
       <c r="P6">
         <v>0.9900480149626345</v>
@@ -29630,7 +29630,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -29683,7 +29683,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798866904159</v>
+        <v>0.9963798866904158</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -29810,7 +29810,7 @@
         <v>0.9963798866575334</v>
       </c>
       <c r="O10">
-        <v>0.9864427566036181</v>
+        <v>0.9864427566036179</v>
       </c>
       <c r="P10">
         <v>0.9900480150729396</v>
@@ -29819,7 +29819,7 @@
         <v>29.46075733198628</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722237</v>
+        <v>-90.63269602722235</v>
       </c>
       <c r="S10">
         <v>149.9123041052339</v>
@@ -29869,19 +29869,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9963798866493128</v>
+        <v>0.9963798866493127</v>
       </c>
       <c r="O11">
         <v>0.9864427566062497</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529788</v>
+        <v>-90.63269602529786</v>
       </c>
       <c r="S11">
         <v>149.9123041061426</v>
@@ -29934,10 +29934,10 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q12">
         <v>29.46075730406723</v>
@@ -29993,13 +29993,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9963798868877105</v>
+        <v>0.9963798868877107</v>
       </c>
       <c r="O13">
         <v>0.9864427565299283</v>
       </c>
       <c r="P13">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -30055,16 +30055,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
         <v>0.9900480147971766</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705855</v>
+        <v>29.46075730705856</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -30433,7 +30433,7 @@
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480149295429</v>
+        <v>0.9900480149295428</v>
       </c>
       <c r="Q20">
         <v>29.46075731902386</v>
@@ -30489,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561808</v>
+        <v>0.9963798867561807</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -30620,7 +30620,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561808</v>
+        <v>0.9963798867561807</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -30815,7 +30815,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -30877,7 +30877,7 @@
         <v>0.9963798867397397</v>
       </c>
       <c r="O6">
-        <v>0.9864427565773003</v>
+        <v>0.9864427565773002</v>
       </c>
       <c r="P6">
         <v>0.9900480149626345</v>
@@ -30945,7 +30945,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -30998,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798866904159</v>
+        <v>0.9963798866904158</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -31125,7 +31125,7 @@
         <v>0.9963798866575334</v>
       </c>
       <c r="O10">
-        <v>0.9864427566036181</v>
+        <v>0.9864427566036179</v>
       </c>
       <c r="P10">
         <v>0.9900480150729396</v>
@@ -31134,7 +31134,7 @@
         <v>29.46075733198628</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722237</v>
+        <v>-90.63269602722235</v>
       </c>
       <c r="S10">
         <v>149.9123041052339</v>
@@ -31184,19 +31184,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9963798866493128</v>
+        <v>0.9963798866493127</v>
       </c>
       <c r="O11">
         <v>0.9864427566062497</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529788</v>
+        <v>-90.63269602529786</v>
       </c>
       <c r="S11">
         <v>149.9123041061426</v>
@@ -31249,10 +31249,10 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q12">
         <v>29.46075730406723</v>
@@ -31308,13 +31308,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9963798868877105</v>
+        <v>0.9963798868877107</v>
       </c>
       <c r="O13">
         <v>0.9864427565299283</v>
       </c>
       <c r="P13">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -31370,16 +31370,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
         <v>0.9900480147971766</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705855</v>
+        <v>29.46075730705856</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -31748,7 +31748,7 @@
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480149295429</v>
+        <v>0.9900480149295428</v>
       </c>
       <c r="Q20">
         <v>29.46075731902386</v>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561808</v>
+        <v>0.9963798867561807</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -34406,7 +34406,7 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686275</v>
@@ -34427,7 +34427,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.694474697036798E-11</v>
+        <v>-8.693312673119492E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,22 +34477,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343812</v>
+        <v>0.9526279482343819</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293721</v>
+        <v>0.9526279813293727</v>
       </c>
       <c r="Q3">
-        <v>8.313211763937887E-08</v>
+        <v>8.313209563470669E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999168589</v>
+        <v>179.999999916859</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -34536,16 +34536,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656305</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.952627995698121</v>
+        <v>0.9526279956981216</v>
       </c>
       <c r="Q4">
-        <v>5.152361397134443E-07</v>
+        <v>5.152360045280029E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -34595,22 +34595,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906294</v>
+        <v>0.9526279368906295</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627992673121</v>
+        <v>0.9526279926731214</v>
       </c>
       <c r="Q5">
-        <v>4.242667625962477E-07</v>
+        <v>4.242667528481625E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34663,13 +34663,13 @@
         <v>0.9526279972106207</v>
       </c>
       <c r="Q6">
-        <v>5.607206374823895E-07</v>
+        <v>5.607206219947699E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718784</v>
+        <v>0.9526279285718781</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -34722,13 +34722,13 @@
         <v>0.9526280009918705</v>
       </c>
       <c r="Q7">
-        <v>6.744321692522938E-07</v>
+        <v>6.744321727629412E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999993255587</v>
+        <v>179.9999993255588</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156281</v>
+        <v>0.9526279278156279</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>0.9526280017481205</v>
       </c>
       <c r="Q8">
-        <v>6.971744703295571E-07</v>
+        <v>6.971744750634783E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999993028164</v>
+        <v>179.9999993028165</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -34831,7 +34831,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031278</v>
+        <v>0.9526279263031276</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -34840,13 +34840,13 @@
         <v>0.9526280032606201</v>
       </c>
       <c r="Q9">
-        <v>7.426590961172729E-07</v>
+        <v>7.426590996277617E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,22 +34890,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906276</v>
+        <v>0.9526279247906272</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731202</v>
+        <v>0.9526280047731205</v>
       </c>
       <c r="Q10">
-        <v>7.88143710059368E-07</v>
+        <v>7.88143713569761E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,7 +34949,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343773</v>
+        <v>0.952627924034377</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -34958,7 +34958,7 @@
         <v>0.9526280055293703</v>
       </c>
       <c r="Q11">
-        <v>8.108860183946999E-07</v>
+        <v>8.108860219050602E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -35008,16 +35008,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656313</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981224</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q12">
-        <v>1.513590267718505E-07</v>
+        <v>1.513590021389128E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35067,22 +35067,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656313</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981224</v>
+        <v>0.9526279835981227</v>
       </c>
       <c r="Q13">
-        <v>1.513590271311658E-07</v>
+        <v>1.513590051263653E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -35126,22 +35126,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279436968809</v>
+        <v>0.9526279436968812</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668718</v>
+        <v>0.9526279858668723</v>
       </c>
       <c r="Q14">
-        <v>2.195860097671116E-07</v>
+        <v>2.195859459667733E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.999999780405</v>
+        <v>179.9999997804051</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -35185,22 +35185,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279421843802</v>
+        <v>0.9526279421843805</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279873793716</v>
+        <v>0.9526279873793718</v>
       </c>
       <c r="Q15">
-        <v>2.650705898138828E-07</v>
+        <v>2.650705749783841E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35244,16 +35244,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218816</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418723</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q16">
-        <v>1.286167194836587E-07</v>
+        <v>1.286166948507538E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35303,16 +35303,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218816</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418723</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q17">
-        <v>1.286167159877562E-07</v>
+        <v>1.286166939829886E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35362,16 +35362,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156304</v>
+        <v>0.952627939915631</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481213</v>
+        <v>0.9526279896481219</v>
       </c>
       <c r="Q18">
-        <v>3.332976061467322E-07</v>
+        <v>3.332974983630286E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -35421,22 +35421,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906304</v>
+        <v>0.9526279368906307</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731211</v>
+        <v>0.9526279926731217</v>
       </c>
       <c r="Q19">
-        <v>4.242668789590299E-07</v>
+        <v>4.242667527070699E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995757241</v>
+        <v>179.9999995757242</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -35480,16 +35480,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218803</v>
+        <v>0.9526279346218806</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.952627994941871</v>
+        <v>0.9526279949418716</v>
       </c>
       <c r="Q20">
-        <v>4.924938336180649E-07</v>
+        <v>4.92493691011194E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -35539,16 +35539,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656305</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.952627995698121</v>
+        <v>0.9526279956981216</v>
       </c>
       <c r="Q21">
-        <v>5.152361397134443E-07</v>
+        <v>5.152359971065405E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
